--- a/evaluation_dataset/test.xlsx
+++ b/evaluation_dataset/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuyifan/Desktop/agent/Pipeline/evaluation_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9C3DC19-BAC5-674E-9636-978A2CB843D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B99D524-2922-E345-8767-C4EE76F9BBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="2660" windowWidth="27840" windowHeight="16940" xr2:uid="{DDCE8443-8F8F-4D48-A1C1-414C901F7257}"/>
   </bookViews>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>打开闹钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +69,10 @@
   </si>
   <si>
     <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -476,10 +476,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -487,16 +487,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
